--- a/txxxxt/Producthunt_all_url.xlsx
+++ b/txxxxt/Producthunt_all_url.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="514">
   <si>
     <t>All_Urls</t>
   </si>
@@ -27,12 +27,18 @@
     <t>Profile Information</t>
   </si>
   <si>
+    <t>Id Reference</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@abhishek_kankani</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@abhishek_kankani Abhishek Kankani CEO &amp; Co-founder @Dyte #3253855 45 followers 18 following 200 points Follow BADGES Top Product MAKER HISTORY Dyte Video SDK Integrate live video calling into your product within minutes Jan 2023 🎉 Joined Product Hunt March 2nd, 2021 Report</t>
   </si>
   <si>
+    <t>id=375989</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@palash_golecha</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
     <t>https://www.producthunt.com/@brianwoo Brian Woo #3630467 285 followers 97 following 1,426 points Follow LINKS Twitter BADGES 7 Top Product Veteran View all badges MAKER HISTORY LINER Highlight while you read LINER AI Jan 2023 Improved Google Search by LINER Dec 2020 LINER Home Aug 2020 LINER Browser Extension Aug 2019 LINER 5 Aug 2018 Highlighting API made by LINER Nov 2017 LINER for Safari May 2017 LINER for Pocket Mar 2017 LINER for iOS Jan 2017 Liner Jul 2015 Google Search Scanner by LINER Filter out irrelevant search results and save your time Dec 2021 LINER for Slack Inspire your team by sharing key quotes to Slack with LINER Aug 2021 Centro 365 V2 Make the admin of Microsoft 365 just that little bit easier Feb 2020 LINER for Samsung First official Android app exclusive on Samsung Galaxy Apps Nov 2018 View more Report</t>
   </si>
   <si>
+    <t>id=377157</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@jinukim21</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
     <t>https://www.producthunt.com/@artkulakov Art Kulakov ML Lead, B2B gaming startup founder #4950832 51 followers 1 following 203 points Follow LINKS Medium Twitter Linkedin INTERESTS Health &amp; Fitness Productivity Indie Games Artificial Intelligence Tech Games Data &amp; Analytics Finance Data Science Data Visualization BADGES Gemologist 2 Top Product MAKER HISTORY Getgud.io Making online games toxic free! Jan 2023 Zenen Imagine ChatGPT and Siri had a baby. That's Zenen. Jan 2023 VoiceType Write Your Entire Email From Short Voice Prompt Jan 2023 100+ AI Prompts A collection of ChatGPT, MidJourney, Dalle2 prompts Jan 2023 🎉 Joined Product Hunt December 24th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376810</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@guykroupp</t>
   </si>
   <si>
@@ -93,6 +105,9 @@
     <t>https://www.producthunt.com/@supnim Nimesh Founder littlecook.io ✦ ex-amazon #4228846 87 followers 90 following 112 points Follow ABOUT Product designer building products, join me on the journey. LINKS littlecook Twitter Linkedin Portfolio INTERESTS Music Fashion Cooking Software Engineering Tech UX Design BADGES Top Product MAKER HISTORY littlecook Your digital sous chef Jan 2023 🎉 Joined Product Hunt April 17th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376335</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@amir_bio</t>
   </si>
   <si>
@@ -105,12 +120,18 @@
     <t>https://www.producthunt.com/@alixanderwang Alexander Wang #1981849 98 followers 193 following 37 points ☀️ 2 day streak Follow LINKS Twitter MAKER HISTORY Terrastruct The diagramming tool for developers Terrastruct Jan 2023 Terrastruct Feb 2021 Terrastruct Jan 2020 D2 Modern diagram scripting language to turn text to diagrams Dec 2022 🎉 Joined Product Hunt July 19th, 2019 Report</t>
   </si>
   <si>
+    <t>id=376853</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@matthew_reid1</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@matthew_reid1 Matthew Reid Co-Founder PriceWell.io #2985088 38 followers 71 following 46 points 🌟 5 day streak Follow ABOUT 🔨 Bootstrapping PriceWell.io Helping anyone build Stripe subscriptions into their website. 10 year Full Stack Developer, Cyclist, Foodie, Dad LINKS Website INTERESTS Fintech SaaS Developer Tools Tech No-Code BADGES Gemologist View all badges MAKER HISTORY PriceWell No fuss, no-code Stripe subscriptions for Bubble apps Jan 2023 SaaS Pricing Guide 350+ SaaS companies pricing compared Apr 2021 🎉 Joined Product Hunt November 13th, 2020 Report</t>
   </si>
   <si>
+    <t>id=377091</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@new_user__0292023a0db70d1b8ed6caa</t>
   </si>
   <si>
@@ -123,12 +144,18 @@
     <t>https://www.producthunt.com/@viktorkirilov Viktor Kirilov Software Engineer, Car Enthusiast #1723797 9 followers 1 following 93 points ☀️ 2 day streak Follow BADGES Top Product MAKER HISTORY This Resume Does Not Exist Resumes generated by a neural network ChatGPT Famous Resumes Jan 2023 This Resume Does Not Exist Mar 2019 Enhancv Our resumes get people hired at top companies Nov 2019 🎉 Joined Product Hunt March 12th, 2019 Report</t>
   </si>
   <si>
+    <t>id=377162</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@nilsjanse</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@nilsjanse Nils Janse Founder of Delibr #1913411 33 followers 22 following 88 points Follow LINKS Twitter Website INTERESTS Design Tools Productivity Task Management User Experience Growth Hacking Developer Tools BADGES Top Product MAKER HISTORY Delibr Get out of the feature factory and ship more product value Delibr AI Jan 2023 Delibr 2.0 Jan 2022 Epic Alignment Sep 2020 Delibr Jun 2019 🎉 Joined Product Hunt June 10th, 2019 Report</t>
   </si>
   <si>
+    <t>id=376934</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@andre_dantorp1</t>
   </si>
   <si>
@@ -165,6 +192,9 @@
     <t>https://www.producthunt.com/@labibyasir Labib Yasir Co-Founder &amp; CEO of Kayyo #5069345 7 followers 5 following 43 points Follow ABOUT Building Kayyo. My life mission is to create a billion martial artists. INTERESTS Artificial Intelligence Tech MAKER HISTORY Kayyo AI Powered Personal MMA Trainer Jan 2023 🎉 Joined Product Hunt January 24th, 2023 Report</t>
   </si>
   <si>
+    <t>id=377110</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@aymansaleh</t>
   </si>
   <si>
@@ -201,12 +231,18 @@
     <t>https://www.producthunt.com/@zeng Zeng Founder of FemmeStock &amp; WhoWhatWhyAi #4432284 778 followers 69 following 1,085 points 🔥 204 day streak Follow ABOUT I am a no-code explorer and AI art enthusiast.  Love to explore new skills and new products. Making AI art is my new hobby.  Feel free DM me on Twitter for a quick chat. @zeng_wt 😉  Sign up to WhoWhatWhyAi newsletter! LINKS Virtual coffee chat with me☕ Femme Stock See My AI Christmas Tree 🎄 Twitter Ai newsletter My blog My AI art Gallery My page Ai art banners 2023 Free 100 AI art banners / cover images INTERESTS Virtual Reality Health &amp; Fitness Productivity Task Management Writing User Experience Social Media Marketing Education Growth Hacking Internet of Things Developer Tools Artificial Intelligence Augmented Reality Product Hunt E-Commerce Bots Games BADGES Buddy System Gemologist Thought Leader View all badges MAKER HISTORY Angel In Heaven Healing hearts after miscarriage. Mar 2023 WhoWhatWhyAi The Goldilocks of Ai Newsletters Feb 2023 Femme Stock Beautiful, feminine AI stock images Jan 2023 AI generated banners 2023 Amazing AI art banners for 2023 Jan 2023 30 AI Christmas &amp; Winter Coloring Pages 30 AI generated Christmas &amp; winter themed coloring pages Dec 2022 View more Report</t>
   </si>
   <si>
+    <t>id=377104</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@ben_ross</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@ben_ross Ben Ross #791361 45 followers 0 following 118 points Follow BADGES 3 Top Product Veteran MAKER HISTORY BlueSky Timer for Zoom Make your Zoom meetings more efficient. Zoom Timer BlueSky Apps Jan 2023 BlueSky Timer for Zoom Jan 2022 Zoom Video communication made simple and easy Sep 2020 POWR Create beautiful website apps, no coding required Oct 2019 🎉 Joined Product Hunt January 25th, 2017 Report</t>
   </si>
   <si>
+    <t>id=376474</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@mait</t>
   </si>
   <si>
@@ -219,6 +255,9 @@
     <t>https://www.producthunt.com/@iamsandysk Santhosh Kumar Elango Co-Founder and CEO at Leadfriday #3406702 94 followers 335 following 62 points Follow LINKS Twitter Linkedin INTERESTS Productivity User Experience SaaS Tech MAKER HISTORY Leadfriday Generate 3x more leads using your current website traffic. Dec 2021 Jikoo.io Modern live chat and no-code chatbot for startups Aug 2021 WhatsApp The simple, reliable, secure messaging app. Jun 2021 🎉 Joined Product Hunt May 13th, 2021 Report</t>
   </si>
   <si>
+    <t>id=377113</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@aluxian</t>
   </si>
   <si>
@@ -231,12 +270,18 @@
     <t>https://www.producthunt.com/@elifduran Elif Duran Co-founder @BeforeSunset, learner&amp;maker #4366845 693 followers 1,097 following 805 points ☀️ 2 day streak Follow ABOUT Hi,   I am Elif from BeforeSunset and currently building in public.  Our aim is to create the simplest work management tool that will end you up working in a healthy environment, and finish your work before sunset 🌅   Your suggestions and comments are always welcome. We'll be launching a sub-product every month, stay tuned!  LINKS Twitter LinkedIn BeforeSunset INTERESTS Design Tools Productivity Task Management Freelance User Experience Marketing Startup Books Time Tracking SEO SaaS Developer Tools Tech Books BADGES Buddy System Gemologist Thought Leader View all badges MAKER HISTORY balancez Achieving balance, one day at a time Jan 2023 The Jingle Bell Timer Jingle into focus with our 25-minute AI timer BeforeSunset Catch beautiful sights, finish your work before sunset. Nov 2022 Free Productivity Guide Your productivity booster with all the statistics and facts Sep 2022 🎉 Joined Product Hunt June 15th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376809</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@patriksvob</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@patriksvob Patrik Svoboda Product designer, Tibio co-creator. #370268 116 followers 103 following 188 points Follow LINKS Dribbble Twitter Linkedin BADGES 2 Top Product Veteran MAKER HISTORY Tibio Track your mood, habits, make notes, and more Jan 2023 React-UseAnimations Collection of free animated icons for React.js. Oct 2019 useAnimations An animated icon library for your projects May 2019 Cryptosaur Visually appealing cryptocurrency tracking iOS app Aug 2018 Pandacolors One click color generator with real time preview Sep 2017 🎉 Joined Product Hunt December 13th, 2015 Report</t>
   </si>
   <si>
+    <t>id=377095</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@duc_phi_viet</t>
   </si>
   <si>
@@ -249,12 +294,18 @@
     <t>https://www.producthunt.com/@victor_falcon Víctor Falcón #1861319 15 followers 3 following 32 points Follow MAKER HISTORY NotifyWave Real-time notifications for everything that matters to you Mar 2023 Monse Privacy-friendly personal finance application Jan 2023 Monse Privacy-friendly and automated personal finances May 2022 💰 Manage your money and investment with a few minutes per month a no efford Aug 2021 🎉 Joined Product Hunt May 12th, 2019 Report</t>
   </si>
   <si>
+    <t>id=375586</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@schlafman</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@schlafman Dave Schlafman #385046 487 followers 178 following 68 points Follow LINKS Twitter BADGES Top Product Veteran MAKER HISTORY Netflix Watch TV shows and movies online. Jun 2017 🎉 Joined Product Hunt December 27th, 2015 Report</t>
   </si>
   <si>
+    <t>id=377115</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@navin_</t>
   </si>
   <si>
@@ -267,6 +318,9 @@
     <t>https://www.producthunt.com/@cedric_teyton Cédric Teyton CEO &amp; co-founder @Promyze #3283109 5 followers 1 following 27 points Follow ABOUT I'm a software developer with a strong interest in the following topics (among others): * Software Quality  * DevOps culture  * Cloud computing  * Software Craftsmanship   I've co-founded Promyze, a knowledge-sharing platform for developers focusing on expertise and best coding practices.  Our work is to help companies to improve their software engineering practices by levering on their internal knowledge sharing. LINKS Website INTERESTS Software Engineering Developer Tools MAKER HISTORY bestcodingpractices.dev A place to learn, inspire and share best coding practices Jan 2023 Promyze Share your best coding practices Oct 2021 🎉 Joined Product Hunt March 16th, 2021 Report</t>
   </si>
   <si>
+    <t>id=375401</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@arthur_magne</t>
   </si>
   <si>
@@ -303,6 +357,9 @@
     <t>https://www.producthunt.com/@shilpamandhan Shilpa Mandhan Head of Growth @ Squaredance #4539037 9 followers 2 following 17 points Follow ABOUT Hi! I work as the Head of Growth at Squaredance. I manage our acquisition and retention+engagement efforts, and love it. I've spent much of my career in customer success and consulting, and have been finding the role and the new industry at Squaredance very refreshing to work in, especially after a long mat leave caring for first kid.  I love coffee, crossfit, travel, and jamming to Bollywood tunes.  LINKS LinkedIn INTERESTS Customer Success Marketing Growth Hacking Artificial Intelligence Social media marketing MAKER HISTORY Squaredance for Shopify Partner marketplace for DTC brands—get customers, grow sales Jan 2023 🎉 Joined Product Hunt August 22nd, 2022 Report</t>
   </si>
   <si>
+    <t>id=376579</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@nmastracci</t>
   </si>
   <si>
@@ -327,6 +384,9 @@
     <t>https://www.producthunt.com/@semigrownkid Christopher Nguyen Making UX Playbook #3390344 103 followers 6 following 166 points ☀️ 2 day streak Follow ABOUT The Diversified Designpreneur  Building @uxplaybook @divvynotion @playstack @supbiohq  Obsess with UX, growth hacking and tech  Open to connections on Twitter @uxchrisnguyen 🤓 LINKS Website Twitter LinkedIn TikTok YouTube INTERESTS Email Design Tools Productivity Writing User Experience Social Media Growth Hacking Global Nomad Artificial Intelligence Remote Work BADGES Buddy System View all badges MAKER HISTORY UX Playbook ⚡️ Build A Better UX Career, Faster 7-Day UX Job Hunting Challenge Jan 2023 UX Portfolio Critique Jan 2023 UX Interview Masterclass Oct 2022 UX Portfolio Playbook Aug 2022 UX Management Playbook 2.0 Jul 2022 UX Management Playbook Jul 2022 UX Playbook 2.0 May 2022 UX Playbook May 2021 🎉 Joined Product Hunt May 6th, 2021 Report</t>
   </si>
   <si>
+    <t>id=377154</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@bribribri</t>
   </si>
   <si>
@@ -339,36 +399,54 @@
     <t>https://www.producthunt.com/@alvaro_pintado Álvaro Pintado Co-Founder at Gox. #5016060 2 followers 0 following 7 points 🌟 5 day streak Follow INTERESTS Artificial Intelligence MAKER HISTORY Whispr ChatGPT's alternative for when it's disabled. Jan 2023 🎉 Joined Product Hunt January 16th, 2023 Report</t>
   </si>
   <si>
+    <t>id=377195</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@verfasor</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@verfasor Mighil globe-earther and schnauzer enthusiast #3955223 127 followers 1 following 175 points ☀️ 2 day streak Follow ABOUT Seasoned professional with diverse work experience in marketing and technology. In my free time, I enjoy reading, writing, tinkering, and experimenting new sound design techniques. Key member of EarlyBird, HeyForm, and TinySnap. I'm down for a coffee and chinwag if you're in Chengdu. Weixin @mighil. LINKS side dishes mighil.com portfolio old blog INTERESTS Productivity Writing User Experience Marketing Developer Tools BADGES Gemologist Top Product View all badges MAKER HISTORY GPT 3.5 Turbo Playground A micro app to try the new ChatGPT API Mar 2023 SEO Stan An AI-powered micro SEO tool for bloggers and makers Feb 2023 Linked XP Elevate your LinkedIn game Feb 2023 This Product Does Not Exist Reinventing the wheel. One AI-generated product at a time. Jan 2023 Welma Understand and retain complex text with the help of AI Jan 2023 View more Report</t>
   </si>
   <si>
+    <t>id=377087</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@solomon_teach</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@solomon_teach Solomon Kingsnorth Teacher #1253561 147 followers 17 following 341 points ☀️ 2 day streak Follow LINKS Website Twitter INTERESTS Mac Design Tools Productivity User Experience Growth Hacking Developer Tools Artificial Intelligence Tech Books MAKER HISTORY Fablegym Read a classic book in 30 days as an email newsletter. Jan 2023 Serge Curated directory for custom illustrations at stock prices. May 2020 Researchify Research tool for kids during a COVID-19 schools shutdown. Mar 2020 🎉 Joined Product Hunt April 16th, 2018 Report</t>
   </si>
   <si>
+    <t>id=377100</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@liborhuspenina</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@liborhuspenina Libor Huspenina Apple platforms developer #1694039 23 followers 70 following 7 points ⚡️ 4 day streak Follow ABOUT I'm interested in software architecture, tests, and applying old-school principles to modern technologies. I dabble in macOS - open-source tool ClipNinja and sometimes write for mobileit.cz LINKS Mastodon Twitter INTERESTS Productivity User Experience Developer Tools MAKER HISTORY ClipNinja macos, copy, paste, open-source Jan 2023 ClipNinja Clipboard manager that enables you to paste effectively. Feb 2019 🎉 Joined Product Hunt February 24th, 2019 Report</t>
   </si>
   <si>
+    <t>id=376954</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@zaid_daba_een1</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@zaid_daba_een1 Zaid Daba'een CEO &amp; Founder - DeveloperHub #1647775 32 followers 0 following 48 points Follow ABOUT Guardian angel for technical writers around the world 🌍  MAKER HISTORY DeveloperHub.io Your Product Deserves to be Understood DeveloperHub.io Jan 2023 Developerhub.io Jul 2018 🎉 Joined Product Hunt January 26th, 2019 Report</t>
   </si>
   <si>
+    <t>id=377071</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@arthurynh</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@arthurynh Arthur Huynh Software Engineer at Qeraunos #5055002 1 follower 0 following 4 points Follow MAKER HISTORY Qeraunos An ultrafast, lightweight caching solution for GraphQL. Jan 2023 🎉 Joined Product Hunt January 20th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376994</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@dennis_cheung</t>
   </si>
   <si>
@@ -387,12 +465,18 @@
     <t>https://www.producthunt.com/@edwardbenson Ted Benson I turn research into product. #122399 612 followers 614 following 56 points ☀️ 2 day streak Follow LINKS Website Twitter BADGES Veteran MAKER HISTORY Production LangChain Hosting Turn LangChains into production multi-user APIs. Feb 2023 Deploy Button for custom GPT-3 APIs Instant GPT-3 backend hosting so you can focus on product. Jan 2023 Shipped with AI Weekly, focused AI commentary for builders and investors Dec 2022 Magic Forms by Cloudstitch Use Google Sheets as a database for all your web forms Cloudstitch Jul 2017 Stack in a Box, by Cloudstitch Aug 2015 Magic Forms by Cloudstitch Aug 2015 Buttonjoy WiFi buttons that donate to charity, send email, SMS &amp; more Feb 2017 🎉 Joined Product Hunt December 13th, 2014 Report</t>
   </si>
   <si>
+    <t>id=377245</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@anton_mishin</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@anton_mishin Anton Mishin Co-founder at Wannathis.one #616880 128 followers 25 following 761 points Follow LINKS Website INTERESTS Productivity Home GIFs Developer Tools Augmented Reality BADGES 12 Top Product Veteran View all badges MAKER HISTORY 3d illustration plugin Simple plugin with huge 3d library right in Figma Mar 2023 Wannathis 3d products for digital designers to save time and work more efficient Free Valentine's Day 3d illustrations Jan 2023 MacBook Pro Mockups Dec 2022 iPhone 14 Pro Mockups Nov 2022 Holographic Abstract 3D Backgrounds Nov 2022 Free Halloween 3D illustrations (2.0) Oct 2022 Big Sale Oct 2022 Abstract 3d illustrations Aug 2022 Inflatable 3d alphabet Aug 2022 Space 3d illustration May 2022 Retro 3d illustrations Apr 2022 Humans 3D Characters V3.0 Jan 2022 3D Charts Dec 2021 Free Christmas 3D Illustrations Nov 2021 Free 3D Halloween Illustrations Oct 2021 Kukla 3d icon kit (v2.0) Oct 2021 Security 3D Icons Aug 2021 Emoji Jul 2021 LOOPS Feb 2021 Xmas 3d icons Dec 2020 Humans Oct 2020 Kukla kit Jun 2020 The Dot. Prototype easy and fast with ready-to-go wireframe UI pack Oct 2020 Design Starter Kit for Sketch A starting point for your next design project. May 2019 Charts The most comprehensive collection of charts for Sketch Mar 2019 View more Report</t>
   </si>
   <si>
+    <t>id=376612</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@egozavria</t>
   </si>
   <si>
@@ -411,12 +495,18 @@
     <t>https://www.producthunt.com/@nutsmuggler Davide Benini Maker of Menu Plan and Read me Aloud #4927581 9 followers 9 following 6 points ☀️ 2 day streak Follow ABOUT Davide is a freelance iOs designer and developer. He has got himself an English Lit degree and a PhD in Irish literature. After a brief period working as a technical translator, he started pursuing his passion for computers and development. Davide has been working on iOS ever since the first SDK was released. He has worked on a huge number of projects, mostly with the good folks at NTNext and with his pal Filippo.  Davide is married to Michela and has two kids, Federico and Caterina.  When not coding or playing with his kids, Davide plays Irish music on the fiddle and mandolin or tends to his vegetable garden.  You can find some extra info on Davide on his country life blog, quagliodromo.it, or his work website davidebenini.it. LINKS Menu Plan Read Me Aloud INTERESTS iOS Music Cooking Kids &amp; Parenting Online Learning MAKER HISTORY Read Me Aloud iPad tales for kids who are learning to read Jan 2023 🎉 Joined Product Hunt December 16th, 2022 Report</t>
   </si>
   <si>
+    <t>id=373387</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@horia141</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@horia141 Horia Coman Software engineer at Stack Overflow #1084158 1 follower 0 following 3 points Follow LINKS Website INTERESTS Web App Slack Health &amp; Fitness Design Tools Productivity API Open Source Writing User Experience Prototyping Marketing Education Growth Hacking Wearables Developer Tools Artificial Intelligence Books BADGES Veteran MAKER HISTORY DeepReview Write CVs, cover letters, perf reviews with the power of AI Jan 2023 🎉 Joined Product Hunt November 17th, 2017 Report</t>
   </si>
   <si>
+    <t>id=377229</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@liviu_coman</t>
   </si>
   <si>
@@ -429,42 +519,63 @@
     <t>https://www.producthunt.com/@akondelin Andrew Kondelin Developer, improving my marketing skills #5043781 4 followers 0 following 2 points ☀️ 2 day streak Follow INTERESTS Productivity Marketing Developer Tools Artificial Intelligence MAKER HISTORY Git Assistant Describe a feature; get a pull request. Github + Chat GPT Jan 2023 🎉 Joined Product Hunt January 19th, 2023 Report</t>
   </si>
   <si>
+    <t>id=377177</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@emh</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@emh Evan Haveman #119614 88 followers 187 following 40 points Follow LINKS Twitter BADGES Veteran MAKER HISTORY Anagramish web based word game combining anagrams and word ladders Jan 2023 thisopenspace Find the creative space you need Feb 2016 Gnusfeed Product Hunt for crowdfunding projects Apr 2015 🎉 Joined Product Hunt December 9th, 2014 Report</t>
   </si>
   <si>
+    <t>id=377160</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@recurrsed</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@recurrsed Recurrsed I build random useless stuff... #5061404 5 followers 13 following 2 points Follow INTERESTS Video Streaming Streaming Services Tech MAKER HISTORY EffectiveGPT Get accurate ChatGPT prompts Jan 2023 🎉 Joined Product Hunt January 22nd, 2023 Report</t>
   </si>
   <si>
+    <t>id=377249</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@andy_andy123</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@andy_andy123 Andy Bubbly Team #4874262 2 followers 0 following 2 points Follow MAKER HISTORY Bubbly Automate Marketing &amp; Engagement Campaigns Over Slack Bubbly Jan 2023 Bubbly Jan 2023 Bubbly Dec 2022 🎉 Joined Product Hunt December 4th, 2022 Report</t>
   </si>
   <si>
+    <t>id=377231</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@web3slinger</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@web3slinger Patrick 26 | Crafting stuff #3822698 6 followers 0 following 36 points Follow BADGES Top Product MAKER HISTORY ChatGenie Talk to any character, dead or alive, real or made up Jan 2023 mintibbl Draw, guess, and mint with your frens! Aug 2022 cryptip.me The friendly way to accept tips in ETH. Jun 2022 🎉 Joined Product Hunt October 29th, 2021 Report</t>
   </si>
   <si>
+    <t>id=376775</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@introvertgeekuk</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@introvertgeekuk Lewis Crutch Building Content Websites and AI Tools #4744987 87 followers 14 following 22 points Follow INTERESTS Marketing Artificial Intelligence BADGES Top Product MAKER HISTORY Recipes By AI Generate Recipes from a List of Ingredients, Powered By AI Jan 2023 🎉 Joined Product Hunt October 25th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376839</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@vonster</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@vonster Von Glitschka I create design and live near Bigfoot. #4237016 0 followers 0 following 12 points Follow LINKS Website INTERESTS Productivity MAKER HISTORY wallaroo Wallpapers just for you! Jan 2023 🎉 Joined Product Hunt April 21st, 2022 Report</t>
   </si>
   <si>
+    <t>id=377000</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@chockenberry</t>
   </si>
   <si>
@@ -477,18 +588,27 @@
     <t>https://www.producthunt.com/@pwntus Pontus Aurdal IoT, AWS, serverless, event-driven. #4138244 4 followers 0 following 42 points Follow INTERESTS Web App Internet of Things Developer Tools Tech Development BADGES Top Product MAKER HISTORY Change Style AI Create new styles of your pictures with the same structure Feb 2023 AI Photo Robot Train your own LoRA AI subject and generate photos. Feb 2023 AI Food Robot Food pictures and recipes generated by A.I. Feb 2023 Møbel Transform your room with artificial intelligence. Jan 2023 Iotnite The leading sourcing platform for digitization and IoT Apr 2022 🎉 Joined Product Hunt March 11th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376815</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@rushi_parikh</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@rushi_parikh Rish Indiehacker running a solo biz #2466251 62 followers 7 following 42 points Follow ABOUT Hi,  This is Rish. Looking to make my app Atomic a success and live off of it if possible.  BADGES Top Product MAKER HISTORY Atomic Save time planning your Google calendar using AI Aug 2022 Atomic Solve all your scheduling problems using AI for everyone Jan 2023 GPT Overflow AI Battle of prompts StackOverflow style Dec 2022 🎉 Joined Product Hunt March 27th, 2020 Report</t>
   </si>
   <si>
+    <t>id=376741</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@lukearrigoni</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@lukearrigoni Luke Arrigoni Founder of multiple AI companies. #4741117 4 followers 4 following 21 points Follow ABOUT Helping companies build state-of-the-art ML/AI programs.  Built and contributed to ML/AI programs at GettyImages, Janssen (J&amp;J), UPS, AT&amp;T, Thomson Reuters, Stryker, Goldman Sachs, FOX Networks, Sephora, Little Caesars and others.  I've designed custom machine learning models and data pipelines at a petabyte scale while developing market-wide strategic directions for my clients. LINKS Forbes Next 1000 LinkedIn INTERESTS Marketing Artificial Intelligence MAKER HISTORY Loti Remove non-consensual intimate images of yourself online. Jan 2023 🎉 Joined Product Hunt October 24th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376414</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@rebekah_arrigoni</t>
   </si>
   <si>
@@ -507,66 +627,99 @@
     <t>https://www.producthunt.com/@max_sommer Max Sommer Web Developer. Curious person. #5059466 11 followers 3 following 15 points Follow ABOUT Trying to leave a positive dent in the universe. LINKS GitHub maxsommer.de Twitter LinkedIn INTERESTS Linux Browser Extensions Mac Web App PlayStation VR Virtual Reality Email Design Tools Productivity Task Management Parenting API Open Source Writing User Experience Analytics Prototyping Ad Blockers A/B Testing Typography MAKER HISTORY Wifi QR Code Share your Wifi with friends &amp; family Jan 2023 🎉 Joined Product Hunt January 21st, 2023 Report</t>
   </si>
   <si>
+    <t>id=376977</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@adrienf</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@adrienf Adrien #2235632 4 followers 0 following 14 points Follow ABOUT I'm a tech entrepreneur driven by a passion for creating things that make a positive impact on people's lives. INTERESTS Productivity User Experience Marketing Developer Tools Artificial Intelligence MAKER HISTORY ChatGPT Prompts Prompts tailored for entrepreneurs, marketers, developers... Jan 2023 Hypnosis Hypnosis app to help you manage your emotions Dec 2019 🎉 Joined Product Hunt November 30th, 2019 Report</t>
   </si>
   <si>
+    <t>id=376966</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@gergo_miklos</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@gergo_miklos Gary Miklos Bootstrapped solopreneur. #4792361 21 followers 28 following 25 points Follow ABOUT Data Science @ University, Software Engineer @ Cloudera, Father @ 2 Kids, Indie Maker @ Late-night!   I will build 6 SaaS products in 2023 to reach 10k MRR and leave my corp job! I am still a lump of fresh meat here, so please follow and support my journey, and I am also open to giving it back!   Projects: - Boosted Writing: productivity tool with paid time limits (0 users) - Text2SQL.AI - Generate SQL with AI (1000 users)  Planned: GPT detector, NoCode AI builder, AI speech assistant, LinkedIn growth tool, Python analytics framework  Thanks for reading this! LINKS Text2SQL.AI INTERESTS Productivity User Experience Analytics Marketing Growth Hacking Developer Tools Artificial Intelligence Tech MAKER HISTORY Text2SQL.AI Generate SQL with AI! Jan 2023 🎉 Joined Product Hunt November 9th, 2022 Report</t>
   </si>
   <si>
+    <t>id=373699</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@sasishan</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@sasishan Sasi I like to build stuff! #1700183 27 followers 36 following 16 points ☀️ 2 day streak Follow ABOUT Hey there!   I've been working in the tech industry for over 10 years now. I've always had a passion for building practical things and I think that's what led me to become a computer engineer.   I've been into tech since the days of Atari, and I've always been fascinated by the practical uses of AI. I believe that technology should be accessible to everyone and I'm dedicated to creating innovative and useful technology for the benefit of others.   When I'm not working, you can find me tinkering with new ideas or playing video games.   Thanks for stopping by! LINKS Twitter INTERESTS Productivity Artificial Intelligence Tech MAKER HISTORY Jobs Scout Improve your resume with the power of AI Jan 2023 Honcho An organizational tool built for managers by managers Apr 2019 🎉 Joined Product Hunt February 27th, 2019 Report</t>
   </si>
   <si>
+    <t>id=376878</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@michael_li4</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@michael_li4 Michael Li Software Engineer #1365154 27 followers 0 following 7 points Follow ABOUT I like building cool products LINKS Website INTERESTS Productivity Task Management Home API User Experience Prototyping Internet of Things Developer Tools Artificial Intelligence Tech Games Books MAKER HISTORY What Word Is That? Find the right word when you need it Jan 2023 🎉 Joined Product Hunt July 27th, 2018 Report</t>
   </si>
   <si>
+    <t>id=377018</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@arafat_akata</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@arafat_akata Arafat Akata A software developer #3428828 3 followers 2 following 9 points ✨ 3 day streak Follow MAKER HISTORY Pencil AI Bring you the power of GPT-3 to you on telegram. Jan 2023 🎉 Joined Product Hunt May 24th, 2021 Report</t>
   </si>
   <si>
+    <t>id=376967</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@vaux_calvert</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@vaux_calvert Vaux Calvert A board #4626266 1 follower 0 following 4 points Follow MAKER HISTORY Vucac Online Whiteboard Collaboration Tool for Every Team Jan 2023 🎉 Joined Product Hunt September 14th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376951</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@pirhofermanuel</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@pirhofermanuel Manuel Pirhofer 👋 Hi, I am Manuel #4986211 2 followers 3 following 11 points Follow ABOUT Entrepreneur with 6+ years of experience.   I've created different startups in different fields (food delivery, bitcoin wallet, social commerce, e-commerce). LINKS Website Today Twitter INTERESTS Health &amp; Fitness Design Tools Productivity User Experience Investing Bitcoin Dieting MAKER HISTORY Today Calendar designed to help you focus Feb 2023 Today A calendar designed to help you focus. Feb 2023 Circle - Social Bitcoin Wallet Buy, store, receive and send Bitcoin super fast. Jan 2023 🎉 Joined Product Hunt January 9th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376953</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@iamsourabhshen</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@iamsourabhshen Sourabh The Notion Buddy #4529667 217 followers 16 following 98 points 🥳 12 day streak Follow ABOUT I'll help you learn and create Notion templates. LINKS Twitter Instagram Website INTERESTS Notion BADGES Gemologist 3 Top Product View all badges MAKER HISTORY Notion Template Bundle 14 Premium Notion Template wrapped in an exclusive bundle. Feb 2023 Notebook Manager Manage all your notes in beautiful and minimal Notebooks Feb 2023 Personal CRM Take your networking to the next level and stay organized. Feb 2023 Time Boxing Planner Take back control of your time. Jan 2023 Notion Personal Task HQ Get productive and stay organised with the Personal Task HQ. Jan 2023 View more Report</t>
   </si>
   <si>
+    <t>id=376940</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@mitkus</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@mitkus Modest Mitkus Solopreneur #3357966 1,252 followers 241 following 251 points ☀️ 2 day streak Follow ABOUT Building one-person businesses and sharing the process with others. LINKS Twitter Linkedin Website INTERESTS Productivity Notes Marketing No-Code BADGES Buddy System 3 Top Product MAKER HISTORY Notion Ultimate Productivity System Become twice productive and get things done. Feb 2023 Notion Ultimate Life Planner Plan and achieve your goals effortlessly. Jan 2023 Notion Ultimate Finance Tracker Track and manage all your finances from one place. Oct 2022 Notion Social Media Kit Plan and grow your social media channels Aug 2022 Notion Creator Course Make $2k/month selling Notion templates Jul 2022 View more Report</t>
   </si>
   <si>
+    <t>id=376834</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@timbresociety</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@timbresociety Deep Sheth Solving problems for content creators #1871672 195 followers 40 following 168 points Follow LINKS Website BADGES 3 Top Product Veteran MAKER HISTORY AutoPay Automate any recurring payment activity on-chain w/ AutoPay Jan 2023 Fragments A platform for collective investments on-chain Aug 2022 Curato Save, curate and monetize your taste in content with Curato Mar 2022 Creator Stash Tools for creators to create, grow, and monetize Oct 2021 🎉 Joined Product Hunt August 5th, 2017 Report</t>
   </si>
   <si>
+    <t>id=376645</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@priyanshu_panda1</t>
   </si>
   <si>
@@ -579,6 +732,9 @@
     <t>https://www.producthunt.com/@arpit_goyal_1 Arpit Just Another Person Seeking Problems #3448669 72 followers 33 following 22 points Follow ABOUT I am working as an AR VR Developer. Interested in myriads of things.  LINKS Twitter IndieHackers Linkedin INTERESTS Productivity Crypto Developer Tools Artificial Intelligence Tech BADGES Top Product View all badges MAKER HISTORY IdeaTank - Connect 1 on 1 with Ideators Unlock Opportunities through Random Connections Jan 2023 🎉 Joined Product Hunt June 1st, 2021 Report</t>
   </si>
   <si>
+    <t>id=376900</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@aakash074</t>
   </si>
   <si>
@@ -591,36 +747,54 @@
     <t>https://www.producthunt.com/@pravin_h Pravin Halady Building Vikara, a chatbot nutritionist #4978814 34 followers 10 following 29 points ☀️ 2 day streak Follow ABOUT I'm a Flutter developer and product designer. I like to build apps that help people lead happier and healthier lives.   I've built Vikara, a chatbot nutritionist to help people maintain a healthy body weight in the long-term by learning healthy eating habits. Vikara can be especially helpful to people who may at times find themselves overeating, occasionally binge eating, and who may have body image issues. But in general Vikara can benefit anyone interested in adopting long-term healthy eating habits.  Vikara 1.0 uses mindful eating practices and cognitive behavior psychology to help prevent overeating, curb binge eating, and build a positive image. I’m looking for feedback from early adopters as well as gauging interest from seed investors. LINKS Twitter Facebook LinkedIn Website INTERESTS iOS Health &amp; Fitness Artificial Intelligence Diversity &amp; Inclusion Illustration Comedy Nutrition MAKER HISTORY Vikara Chatbot nutritionist to help you eat healthy Jan 2023 🎉 Joined Product Hunt January 6th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376921</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@daniel_nikulshyn1</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@daniel_nikulshyn1 Daniel Nikulshyn Senior 👨‍💻 #3462647 44 followers 5 following 92 points ☀️ 2 day streak Follow ABOUT Hello everyone, I am the founder of Welcome No-Code (WNC). What it is? This is a way to make the work of programmers easier and faster. We specialize in no-code solutions that we develop and manage ourselves 👨‍💻🪴  =&gt; https://www.welcomenocode.com  As for me, I have been developing for 6 years and involved in many projects. My job is to fix bugs and develop new ideas that can bring the product to life. LINKS Facebook INTERESTS Productivity User Experience Analytics Marketing Internet of Things Developer Tools Artificial Intelligence Tech No-Code Security BADGES Top Product MAKER HISTORY Cron Jobs Expert Create Cron Job Without Line Of Code Jan 2023 Code Vocations Work Less - Log More Sep 2022 QuickQuery - NoSQL database manager Seamlessly convert any database into Excel report QuickQuery 3.2 Apr 2022 QuickQuery 3.0 Feb 2022 QuickQuery - NoSQL database manager Jul 2021 🎉 Joined Product Hunt June 8th, 2021 Report</t>
   </si>
   <si>
+    <t>id=376949</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@tonye</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@tonye Tonye #2924416 12 followers 0 following 13 points Follow LINKS Website Twitter MAKER HISTORY Optic Weather Experience the weather like never before Jan 2023 🎉 Joined Product Hunt October 17th, 2020 Report</t>
   </si>
   <si>
+    <t>id=376916</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@kevi</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@kevi Kevin Wang Building chrome extensions. #5000605 8 followers 1 following 6 points Follow INTERESTS Productivity Fintech Email Marketing Developer Tools Artificial Intelligence Tech MAKER HISTORY Tab Manager Auto Effortlessly boost your productivity with Tab Manager Auto. Jan 2023 🎉 Joined Product Hunt January 12th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376917</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@plum_notes</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@plum_notes Ian Mora Cretor of plum notes app. #4734910 3 followers 0 following 7 points Follow INTERESTS Productivity Developer Tools Tech MAKER HISTORY Plum Notes Note taking application with a different focus. Jan 2023 🎉 Joined Product Hunt October 20th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376633</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@evgeniy_kosjakov</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@evgeniy_kosjakov Evgeniy Kosjakov Senior Test Automation Engineer #3616774 51 followers 5 following 32 points 🔥 56 day streak Follow LINKS GitHub Twitter INTERESTS Design Tools Marketing Developer Tools MAKER HISTORY mock.qa - gRPC and HTTP mock APIs in the cloud gRPC and HTTP mock APIs in the cloud Jan 2023 Cloudback - cloud backup service for GitHub repositories Automatic daily backups and instant restores of your GitHub repositories, metadata, and even LFS Aug 2021 🎉 Joined Product Hunt August 6th, 2021 Report</t>
   </si>
   <si>
+    <t>id=375646</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@victor_vorobyev</t>
   </si>
   <si>
@@ -639,6 +813,9 @@
     <t>https://www.producthunt.com/@gomesf Flavio Solution Architect #4679562 0 followers 0 following 18 points ☀️ 2 day streak Follow ABOUT I am a software professional with over 6 years of experience working in the personalised, one to one customer engagement space.   During my career I have helped enterprise level clients deliver their large scale digital transformation programs, guiding them through the design and development of cutting edge software, with the primary goal of achieving better NPS and reduced churn rates.  In the last 3 years I have been an integral part of a tech consultancy, working with my team to grow it from a 4 people, 1 client organisation to a 80+ people organisation with staff and clients across multiple geographies. LINKS OmniWork INTERESTS Customer Success Software Engineering Tech Data &amp; Analytics MAKER HISTORY OmniWork One link to run your business Jan 2023 🎉 Joined Product Hunt October 3rd, 2022 Report</t>
   </si>
   <si>
+    <t>id=376886</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@sohrab_tellaie</t>
   </si>
   <si>
@@ -669,30 +846,45 @@
     <t>https://www.producthunt.com/@dbradleyfl Devon Bradley Shipping software products 🚀 #522593 102 followers 158 following 42 points Follow LINKS Twitter Website INTERESTS Web App Virtual Reality Productivity API Open Source Twitter Social Network Growth Hacking Global Nomad TV Streaming Services Developer Tools Augmented Reality GitHub Snapchat Search BADGES Veteran MAKER HISTORY Calendar Query Query your Google Calendar with SQL Jan 2023 Motion Security Cam Turn your laptop or mobile device into a motion camera alarm Jul 2020 Couch Live Your virtual living room for watching TV with friends! Mar 2020 Macbar Next Bus A free mac menubar application for bus stop departures! Oct 2017 🎉 Joined Product Hunt April 15th, 2016 Report</t>
   </si>
   <si>
+    <t>id=376772</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@rando_tkatsenko</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@rando_tkatsenko Rando Tkatsenko Building cool stuff with Unity- VR, AI. #4942150 6 followers 0 following 3 points Follow INTERESTS Productivity Artificial Intelligence Tech MAKER HISTORY Furmasterpiece - Pet Avatar Creator Furmasterpiece turns any pet photo into a stunning avatar. Jan 2023 🎉 Joined Product Hunt December 21st, 2022 Report</t>
   </si>
   <si>
+    <t>id=376743</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@thiteanish</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@thiteanish Anish Thite Master procrastinator #3073292 43 followers 293 following 39 points Follow LINKS Website Twitter BADGES Top Product MAKER HISTORY GiftBot Holiday Gift Help from a GPT-3 chatbot GiftBot: Love Edition Jan 2023 GiftBot Dec 2022 Circle GPT-3 powered bots Dec 2020 🎉 Joined Product Hunt December 20th, 2020 Report</t>
   </si>
   <si>
+    <t>id=376937</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@jaisalr</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@jaisalr Jaisal Rathee Building www.startups.fyi 🦄 #2711861 220 followers 17 following 887 points ✨ 3 day streak Follow LINKS Website INTERESTS Productivity Growth Hacking BADGES 6 Top Product View all badges MAKER HISTORY Startup Money Free Database of 2,000+ Startup Incubators and Accelerators Feb 2023 Internet Is Beautiful Discover the most interesting, weird and awesome websites. Jan 2023 Supernuclear A guide to coliving Jan 2023 Startups.fyi Discover the best free tools for startup founders Startups.fyi Dec 2022 Startups.fyi May 2022 Billion Dollar Business Ideas Discover billion dollar business ideas for your next project Sep 2022 View more Report</t>
   </si>
   <si>
+    <t>id=376701</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@hamza_afzal_butt</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@hamza_afzal_butt Hamza Afzal Butt B2B SaaS Growth Marketing Consultant #3830504 348 followers 67 following 501 points ☀️ 2 day streak Follow ABOUT I am a B2B SaaS digital marketing manager with over ten years of experience. I am passionate about my job and staying up-to-date with the latest trends and technologies in the marketing field. My expertise is SEO, Social Media Marketing, and producing engaging online content with working knowledge of SEO practices. I have experience with CMS, ESP, and HTML too. Currently, I am responsible for developing and executing marketing strategies that drive growth and customer acquisition through inbound and outbound marketing, content creation, and lead generation. WORK Marketing Manager at WorkHub LINKS Twitter LinkedIn INTERESTS Android iOS Web App Slack Virtual Reality Email Health &amp; Fitness Task Management Music Messaging Open Source Writing User Experience Social Network Social Media Analytics Prototyping Marketing Education Growth Hacking BADGES Contributor Top Product View all badges MAKER HISTORY WorkHub AI driven team communication, collaboration, recognition and rewards platform Jan 2023 🎉 Joined Product Hunt November 2nd, 2021 Report</t>
   </si>
   <si>
+    <t>id=376690</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@qudsia_ali</t>
   </si>
   <si>
@@ -741,12 +933,18 @@
     <t>https://www.producthunt.com/@sobedominik Dominik Sobe ⚡Indie Hacker building interweb products #1485377 1,702 followers 601 following 431 points Follow LINKS Website Twitter INTERESTS Analytics SaaS BADGES Gemologist 3 Top Product MAKER HISTORY The Help Center Academy Learn the secrets of building a successful help center Jan 2023 HelpKit Knowledge Base Build a professional help center or doc site with Notion Aug 2022 Notion Simple Table by HelpKit A free table generator for Notion using the equation block Sep 2021 ProductFlair Curated Product Hunt launch inspiration, tips and more Mar 2021 The only love letter you'll need Nothing says love like cold hard facts Feb 2021 View more Report</t>
   </si>
   <si>
+    <t>id=376172</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@juliejennifernguyen</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@juliejennifernguyen JJ Nguyen #2806365 395 followers 355 following 44 points Follow LINKS Twitter MAKER HISTORY Makelog Autogenerate your changelog with GPT-3 + share to Slack, email + more! Jan 2023 🎉 Joined Product Hunt August 23rd, 2020 Report</t>
   </si>
   <si>
+    <t>id=376770</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@britonbaker</t>
   </si>
   <si>
@@ -777,36 +975,54 @@
     <t>https://www.producthunt.com/@derstartupcfo Sebastian Janus - derStartupCFO Founder &amp; Serial Entrepreneur #3086104 362 followers 279 following 545 points Follow ABOUT An energetic, pragmatic, and passionate entrepreneur with extensive experience in building and scaling digital business models + managed two company exits in the last 20 years, including 4 years as the CFO at Foot Locker for the e-commerce business in Europe, then travelling around the world for more than 10 months.  I prefer to call myself "derstartupcfo". 🔥  Currently, CEO &amp; Founder of nugrow, which is the leading boutique consultancy specialized in providing strategic &amp; operative consulting alongside support and leadership to startups, scale-ups &amp; grown-ups.  LINKS Twitter Website LinkedIn nugrow INTERESTS Marketing Venture Capital SaaS E-Commerce Tech Fundraising BADGES Buddy System Gemologist Thought Leader View all badges MAKER HISTORY Pitchdeck Challenge 10 Days to Master your Pitchdeck Creation Jan 2023 PitchCheck Step by step instructions to the perfect Pitch Deck Dec 2022 Diversity.wiki World's largest directory for diversity &amp; inclusion May 2022 🎉 Joined Product Hunt December 27th, 2020 Report</t>
   </si>
   <si>
+    <t>id=375921</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@jan_sulek</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@jan_sulek Jan Sulek AI Newsletter - insideai.co #4877025 5 followers 1 following 32 points Follow LINKS AI Newsletter - Inside AI INTERESTS Productivity Fintech Marketing Artificial Intelligence Tech BADGES Top Product MAKER HISTORY Inside AI The most complete AI Newsletter Jan 2023 🎉 Joined Product Hunt December 5th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376388</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@adithya</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@adithya Adithya Shreshti Startup Launch &amp; NoCode Consultant #443764 1,731 followers 357 following 4,290 points 🔥 74 day streak Follow ABOUT Among top Product Hunters. 225+ hunts and launches over the last many years.   As a NoCode Catalyst and Startup Launch Consultant I have had the opportunity and privilege to converse with 100s of founders/makers to help in the process of building their product and guide them through the process of launch to achieve excellent initial traction and get the ball rolling.   Conversations/Workshops with tons of aspiring creators and makers and more.  You can checkout my website or my timeline to know more. LINKS Join NoCode Tribe View my Timeline Follow on Twitter INTERESTS Windows Slack Email Productivity News Messaging Video Streaming Home Art API Open Source Writing Notes Twitter Social Media Prototyping Customer Communication Typography Marketing Advertising BADGES Beta Tester Gemologist Thought Leader View all badges MAKER HISTORY Product Launch AI Unleash the power of AI to supercharge your product launches Jan 2023 NoCode Stash Discover the best of no-code for your next maker project Nov 2021 Open Source Stash The best open-source alternatives for you next maker project Dec 2020 Knowmad Life A platform connecting you to other digital nomads 🌎 Oct 2017 🎉 Joined Product Hunt February 4th, 2016 Report</t>
   </si>
   <si>
+    <t>id=376177</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@johan_v1</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@johan_v1 Johan Building and thinking AI stuff #4613682 25 followers 4 following 119 points Follow INTERESTS Design Tools Developer Tools Artificial Intelligence Tech BADGES Top Product View all badges MAKER HISTORY AI Builders - Building the future The WhatsApp group for founders, devs and builders in Gen AI Mar 2023 Frank One AI Assistant across Web, App and Keyboard Feb 2023 Casper GPT-3 in your iPhone Keyboard Jan 2023 Albert The AI-powered search &amp; content creation app Dec 2022 Dreamland Discover and buy AI generated visuals, images and content. Sep 2022 🎉 Joined Product Hunt September 11th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376393</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@heyynoon</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@heyynoon Brian Product Designer &amp; Notion Creator #4570937 178 followers 52 following 70 points Follow ABOUT Product Designer &amp; Notion Creator • Building productivity systems in Notion • Helping you to be productive, not busy. LINKS Website Products Twitter Instagram INTERESTS Productivity User Experience Education UX Design Notion MAKER HISTORY Social Media Manager Plan your social media content like a pro. Jan 2023 Twitter Content Hub Notion dashboard Write, plan and organize your Twitter content with ease. Dec 2022 Notion Resume Builder Build your resume easily within Notion Nov 2022 Notion CRM System Capture leads, increase sales, organize your contacts. Oct 2022 Habit Journal Your daily companion for routines, habits and reflections. Oct 2022 View more Report</t>
   </si>
   <si>
+    <t>id=376755</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@ryanrgarland</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@ryanrgarland Ryan Garland Hello! #4554646 0 followers 0 following 9 points Follow MAKER HISTORY Infer Next-Gen Analytics for dbt. Supercharge models with Infer. Jan 2023 🎉 Joined Product Hunt August 25th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376125</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@erik_mathiesen_dreyfus</t>
   </si>
   <si>
@@ -819,12 +1035,18 @@
     <t>https://www.producthunt.com/@siddharth_verma1 Siddharth Verma SAAS Consultant | Startups | AI/NLP #1435795 3 followers 0 following 38 points Follow ABOUT Hi, I am Siddharth Verma. A start-up enthusiast with 6+ years of experience. I have worked with over 50+ SAAS companies helping them build robust scalable solutions, product and engineering problems. I am a full-stack developer with a knack for marketing and product development. LINKS Twitter Linkedin INTERESTS Productivity Marketing Developer Tools Artificial Intelligence MAKER HISTORY The Guest Posts App A New Way To Find Guest Posts Faster Jan 2023 One Click Article Generator 500-800 Words Comprehensive Articles In A Single Click Jan 2023 Linkedin Posts Generator Generate Linkedin Posts In Seconds From Articles Jan 2023 Best Tools For Your SAAS Product A curated list of 72 tools. Filter and Save your picks Oct 2022 🎉 Joined Product Hunt September 21st, 2018 Report</t>
   </si>
   <si>
+    <t>id=376565</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@leah_stigile</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@leah_stigile Leah Stigile Co-founder &amp; CEO #5026146 7 followers 6 following 27 points ☀️ 2 day streak Follow BADGES Buddy System MAKER HISTORY hai Infusions Smart Showerhead Your daily shower, reimagined with smart tech. Jan 2023 🎉 Joined Product Hunt January 18th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376789</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@gina_oh</t>
   </si>
   <si>
@@ -855,24 +1077,36 @@
     <t>https://www.producthunt.com/@madi_fisk Madi Fisk Intern @hai #5072272 3 followers 2 following 8 points Follow INTERESTS Biohacking Climate Tech Quantified Self MAKER HISTORY hai Infusions Smart Showerhead Your daily shower, reimagined with smart tech. Jan 2023 🎉 Joined Product Hunt January 24th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376731</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@marckohlbrugge</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@marckohlbrugge Marc Köhlbrugge Founder of BetaList #497 16,734 followers 131 following 3,002 points ☀️ 2 day streak Follow LINKS Twitter Website INTERESTS Task Management BADGES 13 Top Product Veteran View all badges MAKER HISTORY This Job Does Not Exist Jobs of the future, imagined by AI Mar 2023 Startup Jobs Join a startup. Build the future. Interview Questions Mar 2023 Startup Jobs Sep 2018 Followup Fish Bubble up emails back to the top of your inbox 🐟 Jan 2023 Handle Horse Monitor when your desired Twitter handle becomes available Dec 2022 AI Jobs Apply to 1,000+ jobs in AI and Machine Learning Nov 2022 View more Report</t>
   </si>
   <si>
+    <t>id=376786</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@ahsan_shahid</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@ahsan_shahid Ahsan Shahid Builder #4339504 2 followers 0 following 10 points Follow INTERESTS Productivity Marketing Tech MAKER HISTORY Extractify Convert Youtube videos into Tweets and LinkedIn posts Jan 2023 🎉 Joined Product Hunt June 3rd, 2022 Report</t>
   </si>
   <si>
+    <t>id=376802</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@nicolas_graf</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@nicolas_graf Nicolas Graf Heavy web consumer and creator. #4992419 16 followers 4 following 7 points Follow LINKS Twitter INTERESTS User Experience Twitter Social Network Artificial Intelligence Tech Web Design MAKER HISTORY Spot A Bot Get insights into the bot activity for Twitter trends Jan 2023 🎉 Joined Product Hunt January 10th, 2023 Report</t>
   </si>
   <si>
+    <t>id=375422</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@kevin_harizaj</t>
   </si>
   <si>
@@ -897,18 +1131,27 @@
     <t>https://www.producthunt.com/@amartya_varma Amu Founder of Sentiment #3598879 19 followers 1 following 33 points ✨ 3 day streak Follow LINKS Website INTERESTS Developer Tools Artificial Intelligence Tech BADGES Gemologist View all badges MAKER HISTORY Ensurit Integrated tools for teachers to detect AI Feb 2023 Semantic AI The fullstack AI writing suite, that gives you back control! Jan 2023 Whiskey AI Get your thoughts down faster than ever Jan 2023 Semantic AI-based search and question answering in a hosted database Jun 2022 Sentiment Opensource APIs for stock social media data Aug 2021 🎉 Joined Product Hunt July 31st, 2021 Report</t>
   </si>
   <si>
+    <t>id=376669</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@sourav204</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@sourav204 Sourav Kumar Pradhan Developer #985273 60 followers 70 following 52 points Follow INTERESTS Web App Chrome Extensions API Open Source WordPress Developer Tools Bots BADGES Veteran MAKER HISTORY MailGPT - AI powered email generator. Experience the convenience Jan 2023 Advanced Twitter Search v2 Unlock the hidden gems of Twitter. Jun 2021 Advanced Twitter Search Unlock the hidden gems of Twitter. Jul 2020 AFS Prime Perform Facebook graph searches. Jul 2019 AFS (Advanced Facebook Search) Find stories, connections and photos of people on Facebook Aug 2017 🎉 Joined Product Hunt August 26th, 2017 Report</t>
   </si>
   <si>
+    <t>id=376685</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@dineshkruplani</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@dineshkruplani Dinesh Kruplani Growth &amp; Marketing at Dehidden #3696955 50 followers 115 following 39 points ☀️ 2 day streak Follow ABOUT 👋 Hi, I’m Dinesh Kruplani  I’m currently working at Dehidden, a web3 CRM tool, we've worked with 25+ clients, including Coinbase, Flipkart, Adidas, Prada and more!   Previously built and sold a social gaming and esports platform with 50,000+ users.   Apart from this, I love cooking, reading business, finance and psychology books. Happy to connect and explore synergies. LINKS Twitter INTERESTS Newsletters User Experience Public Relations Twitter Branding Marketing Startup Books Growth Hacking Advertising Crypto Growth Hacks Web3 Ethereum Bitcoin DAO DApp Cryptocurrency Blockchain DeFi Marketing calendar BADGES Top Product MAKER HISTORY Multichain Playbook Unlock the potential of NFT Project with Multichain Playbook Jan 2023 NFT Wrapped Experience your 2022 NFT journey the Degen way! Dec 2022 🎉 Joined Product Hunt September 8th, 2021 Report</t>
   </si>
   <si>
+    <t>id=376717</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@ramees_p_s</t>
   </si>
   <si>
@@ -945,6 +1188,9 @@
     <t>https://www.producthunt.com/@thisisthequick Jason Russell Director of Product at Oura Ring #226335 150 followers 177 following 31 points Follow LINKS Twitter BADGES Veteran MAKER HISTORY Oura for Apple Watch Be mindful of your health data while you’re on the go Jan 2023 Oura The world's first wellness ring and app Oura Gen3 Horizon Ring Sep 2022 Oura Ring Gen3 Oct 2021 Pandora Find the music you love, and let the music you love find you. Oct 2016 🎉 Joined Product Hunt May 15th, 2015 Report</t>
   </si>
   <si>
+    <t>id=376640</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@plahtela</t>
   </si>
   <si>
@@ -957,6 +1203,9 @@
     <t>https://www.producthunt.com/@aaronpardes Aaron Pardes Building things with code #82197 39 followers 142 following 14 points 🎉 6 day streak Follow ABOUT Professional web dev, crypto enthusiast, enjoyer of cool cars. LINKS Twitter BADGES Veteran MAKER HISTORY ciphergoat Encrypt and backup your recovery seed phrases Jan 2023 🎉 Joined Product Hunt October 9th, 2014 Report</t>
   </si>
   <si>
+    <t>id=376756</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@danilo_bandovic</t>
   </si>
   <si>
@@ -975,6 +1224,9 @@
     <t>https://www.producthunt.com/@alimir Ali Mir Co-founder at Spicy.hr #1193949 9 followers 0 following 9 points ☀️ 2 day streak Follow ABOUT Founder at Spicy.hr  Previously software engineer and eng leader at Doordash, Meta, Rippling, and Moralis. LINKS SpicyHR LinkedIn BADGES Veteran MAKER HISTORY BestSales.jobs Remote Tech Sales Jobs - SDR, ISR, BDR, and AE roles Feb 2023 SpicyHR SpicyHR is a FAST hiring software - made for startups who value time Jan 2023 Vasona Hire Lightweight recruiting platform with video cover letters Jan 2023 Hiring Cafe See who’s still hiring right now Dec 2022 Hekob Udemy but in real life Feb 2018 🎉 Joined Product Hunt February 21st, 2018 Report</t>
   </si>
   <si>
+    <t>id=376750</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@meisamm</t>
   </si>
   <si>
@@ -987,24 +1239,36 @@
     <t>https://www.producthunt.com/@stefano_ippolito_gitto Stefano Ippolito Gitto Founder of Lightness #5081944 0 followers 0 following 2 points ☀️ 2 day streak Follow MAKER HISTORY Lightness App for meeting new people, exploring cultures and messaging Jan 2023 Destiny Lights A new social to express all your thoughts, ideas and secrets Jun 2022 🎉 Joined Product Hunt May 18th, 2022 Report</t>
   </si>
   <si>
+    <t>id=376758</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@deathtinyz</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@deathtinyz Dream.Chayutpong Front-End Developer. #5012375 10 followers 0 following 1 point Follow ABOUT My name is Chayutpong Jamneanpongphan. I am a Front-End Developer. I create professional websites. I love art and always try to show unique views to the audience through my design. I will go beyond the limits. LINKS Facebook Instagram Linkedin MAKER HISTORY Moodlody make you feel relaxed. Jan 2023 🎉 Joined Product Hunt January 14th, 2023 Report</t>
   </si>
   <si>
+    <t>id=376855</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@patrick_tran1</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@patrick_tran1 Patrick Tran #1707886 1 follower 0 following 7 points ✨ 3 day streak Follow MAKER HISTORY Translate Park English sentence simplifier and translator Mar 2023 Todidlist Simple place to track what you've done Jan 2023 🎉 Joined Product Hunt March 4th, 2019 Report</t>
   </si>
   <si>
+    <t>id=376875</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@christophepas</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@christophepas Christophe Pasquier Founder @ Slite #40739 1,445 followers 541 following 1,179 points ☀️ 2 day streak Follow ABOUT I have been building a product company, Slite, in remote since 2016,  a workspace for modern teams to adapt to the new work era.  I constantly think, write about the next frontiers of work, share and discuss these thoughts here, on Linkedin,  and on slite.com/blog.  I'm lucky enough to have built a brilliant team of 40 incredible human beings, spread in 12 countries 🇲🇦🇱🇹🇦🇷🇬🇧🇳🇱🇫🇷🇳🇴🇺🇸🇪🇸🇩🇪🇨🇦🇵🇹, to have attended YC in 2018, raised more than 15M$ with incredible investors such as Spark capital and Index ventures, and to serve dozens of thousands teams every month! LINKS Website Twitter INTERESTS Design Tools Productivity Writing User Experience Artificial Intelligence BADGES 7 Top Product Veteran View all badges MAKER HISTORY Slite Bring clarity to your team Ask by Slite Jan 2023 Slite Discussions Jun 2022 Slite + Excalidraw Feb 2021 Slite 2.0 Oct 2020 Lead by Writing Sep 2019 Slite for Mobile Dec 2018 Slite Jan 2018 Templates by Slite Jan 2018 Slite Oct 2017 🎉 Joined Product Hunt August 8th, 2014 Report</t>
   </si>
   <si>
+    <t>id=376434</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@jonmccull</t>
   </si>
   <si>
@@ -1107,6 +1371,9 @@
     <t>https://www.producthunt.com/@brennanwoodruff Brennan Woodruff Finance guy gone AI Product Developer #4598581 48 followers 3 following 306 points Follow ABOUT Hoosier gone rogue to California.  After working at KPMG, Uber's Product Finance Team, and Softbank's Vision Funds I decided that I want to focus on building products that help people make entrepreneurship more accessible and sustainable. That lead me to work with a few AI Mad Scientists to build GoCharlie.ai. We're focused on building a first of it's kind AI Content Creation Tool that is purpose built for marketing.  In my spare time, I listen to podcasts, read, write a newsletter and editorials, and volunteer with the Guardsmen in San Francisco.  INTERESTS Art Marketing Artificial Intelligence Growth Hacks BADGES Buddy System 2 Top Product MAKER HISTORY GoCharlie.ai Making Content Creation as fun as playing with a puppy Charlie Jan 2023 Charlie 2.0 Sep 2022 🎉 Joined Product Hunt September 5th, 2022 Report</t>
   </si>
   <si>
+    <t>id=375110</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@kostas_hatalis</t>
   </si>
   <si>
@@ -1125,6 +1392,9 @@
     <t>https://www.producthunt.com/@hwi Hwi Lee Head of Design @Neeva #3979291 13 followers 19 following 99 points Follow ABOUT Activate design within teams, colleagues, and community. Make search 10x better.  LINKS Twitter LinkedIn INTERESTS Artificial Intelligence Design BADGES Buddy System Top Product MAKER HISTORY Neeva Search powered by AI. Get answers. Not ads. Jan 2023 🎉 Joined Product Hunt January 12th, 2022 Report</t>
   </si>
   <si>
+    <t>id=374952</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@yusuf_ozuysal</t>
   </si>
   <si>
@@ -1191,6 +1461,9 @@
     <t>https://www.producthunt.com/@ednevsky Alexander Nevedovsky #1105511 356 followers 1,675 following 458 points ☀️ 2 day streak Follow ABOUT 2x founder. Ex WANNA (exit to Farfetch) and Palta (startup studio behind Flo) LINKS Twitter Linkedin INTERESTS iOS Health &amp; Fitness Productivity Messaging Social Network Meditation Artificial Intelligence Social Impact BADGES 4 Top Product Veteran MAKER HISTORY Writingmate.ai Free ChatGPT alternative that works as a Chrome extension Jan 2023 Alms A well-being social app focused on IRL actions Nov 2021 Wanna Kicks Try on and shop footwear in AR! Jan 2019 WANNABY Our mission is to break online shopping barriers. Jun 2018 🎉 Joined Product Hunt December 9th, 2017 Report</t>
   </si>
   <si>
+    <t>id=376466</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@artem_vysotsky</t>
   </si>
   <si>
@@ -1203,6 +1476,9 @@
     <t>https://www.producthunt.com/@rams_211 Ram Sathia Automation obsessed technologist #4344282 78 followers 222 following 381 points 🔥 7 day streak Follow ABOUT Have been automating tech for 20+ years. Automation is not just my passion but an obsession. We only have scratched the surface. So much more to automate and endless possibilities.  6+ patents and innovation, much more to go.   My ideal / nirvana of automation: 1. Connect brain and google search (without computer / phone) so knowledge is not just in your fingertips but right in your train of thoughts - neuro mirroring? 2. Power conversations through API 3. Personal upvotes - true upvotes to motivate kind acts, favors / deeds, leadership, professional help, a true social help platform through automation across all social channels 4. Space travel simplified and cheap 5. Time travel and teleportation (joke?) INTERESTS Productivity API Developer Tools Artificial Intelligence Tech Design BADGES Buddy System 2 Top Product View all badges MAKER HISTORY Conektto Powering the innovators of tomorrow Conektto API-First Design Studio Jan 2023 EZAPI Lifecycle Fabric Jun 2022 Conektto API Test Harness Autonomous API Testing Platform Oct 2022 🎉 Joined Product Hunt June 7th, 2022 Report</t>
   </si>
   <si>
+    <t>id=375784</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@amol_dewhare</t>
   </si>
   <si>
@@ -1221,6 +1497,9 @@
     <t>https://www.producthunt.com/@garciafrey Alfonso García Frey Building nextgen design technology #877476 131 followers 1,468 following 241 points Follow LINKS Twitter Website INTERESTS Design Tools Open Source Prototyping Growth Hacking Developer Tools Artificial Intelligence BADGES Veteran View all badges MAKER HISTORY Yotako Bring Figma/AdobeXD designs to WordPress automatically Figma to WordPress Beta Jan 2023 WordPress for Adobe XD Sep 2022 Yotako Dec 2018 🎉 Joined Product Hunt May 2nd, 2017 Report</t>
   </si>
   <si>
+    <t>id=375864</t>
+  </si>
+  <si>
     <t>https://www.producthunt.com/@cackbone</t>
   </si>
   <si>
@@ -1255,6 +1534,9 @@
   </si>
   <si>
     <t>https://www.producthunt.com/@ali_haider32 Ali Haider Building a venture studio #4885174 26 followers 13 following 87 points Follow LINKS Twitter Alt Sprints Alt Ventures Linkedin MAKER HISTORY Alt Sprints Idea to MVP in 2 Weeks NoLoCo Stack Feb 2023 Alt Sprints Jan 2023 Alt Pass - A future without OTPs Sign up users with WhatsApp Jan 2023 🎉 Joined Product Hunt December 7th, 2022 Report</t>
+  </si>
+  <si>
+    <t>id=376506</t>
   </si>
   <si>
     <t>https://www.producthunt.com/@ahsan_asghar29</t>
@@ -1285,7 +1567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,14 +1579,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1339,19 +1613,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1652,1712 +1923,2339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>249</v>
+      </c>
+      <c r="B98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>267</v>
+      </c>
+      <c r="B105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" t="s">
+        <v>277</v>
+      </c>
+      <c r="C109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>285</v>
+      </c>
+      <c r="B112" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" t="s">
+        <v>289</v>
+      </c>
+      <c r="C113" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>294</v>
+      </c>
+      <c r="B116" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>298</v>
+      </c>
+      <c r="B118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>302</v>
+      </c>
+      <c r="B120" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>305</v>
+      </c>
+      <c r="B121" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" t="s">
+        <v>309</v>
+      </c>
+      <c r="C122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" t="s">
+        <v>313</v>
+      </c>
+      <c r="C124" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>319</v>
+      </c>
+      <c r="B127" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>322</v>
+      </c>
+      <c r="B128" t="s">
+        <v>323</v>
+      </c>
+      <c r="C128" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>325</v>
+      </c>
+      <c r="B129" t="s">
+        <v>326</v>
+      </c>
+      <c r="C129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>328</v>
+      </c>
+      <c r="B130" t="s">
+        <v>329</v>
+      </c>
+      <c r="C130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>336</v>
+      </c>
+      <c r="B133" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>339</v>
+      </c>
+      <c r="B134" t="s">
+        <v>340</v>
+      </c>
+      <c r="C134" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>344</v>
+      </c>
+      <c r="B136" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>346</v>
+      </c>
+      <c r="B137" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>350</v>
+      </c>
+      <c r="B139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C139" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B140" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>106</v>
-      </c>
-      <c r="B140" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="C141" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C142" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="C143" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="C144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="C145" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="C146" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="C147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="C148" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="C149" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="C150" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="C151" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="C152" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="C153" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="C154" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="C155" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="C156" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="C157" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="C158" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="C159" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="C160" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="C161" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="C162" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="C163" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="C164" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="C165" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="C166" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="C167" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="C168" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>422</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="C169" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="C170" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="C171" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="C172" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="C173" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>432</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="C174" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="C175" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="C176" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>438</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="C177" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="C178" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>442</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="C179" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="C180" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="C181" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>448</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="C182" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="C183" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="C184" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="C185" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>458</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="C186" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="C187" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="C188" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>464</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="C189" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="C190" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="C191" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C192" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="C193" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>474</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="C194" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="C195" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="B196" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="C196" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>481</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="C197" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="C198" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="C199" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>488</v>
       </c>
       <c r="B200" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="C200" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="C201" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>493</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="C202" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>495</v>
       </c>
       <c r="B203" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="C203" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="B204" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="C204" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>499</v>
       </c>
       <c r="B205" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="C205" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="B206" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="C206" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="B207" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="C207" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="B208" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="C208" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="B209" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="C209" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="B210" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="C210" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="B211" t="s">
-        <v>419</v>
+        <v>513</v>
+      </c>
+      <c r="C211" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2"/>
-    <hyperlink ref="B8"/>
-    <hyperlink ref="B92"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>